--- a/literature/literature_example.xlsx
+++ b/literature/literature_example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathrynvasilaky/Dropbox/Phillipines/reading/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/cijensen_calpoly_edu/Documents/MSQE/GSE_580/GSE-580-project/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3BD2596570AD2260C1F4A67035D1E7BFF86D7844" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB1C56E9-F500-4732-85EC-5DC2ED61327B}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="25740" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="11260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
   <si>
     <t>Title</t>
   </si>
@@ -96,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">NATURAL DISASTERS AND LABOR MARKETS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How a large earthquake in Indonesia affected local labor markets, in particular the evolution of wages across sectors. </t>
   </si>
   <si>
     <t>wage growth in the agriculture sector is significantly higher in earthquake-affected areas. Author proposes two mechanisms for this result: a higher growth rate of the price of rice in agricultural communities which switch from being net sellers to net buyers of rice, and a downward shift in the supply of workers in the agricultural sector; Author shows that evidence mainly supports the latter.</t>
@@ -642,15 +640,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -723,46 +714,45 @@
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -798,6 +788,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1124,28 +1117,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="3"/>
-    <col min="2" max="2" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" style="3"/>
-    <col min="8" max="8" width="33.1640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="24.1640625" style="3"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1174,17 +1164,17 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="155" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>2015</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1194,88 +1184,86 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="256" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="248" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>2015</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="186" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="192" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3">
-        <v>2015</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="208" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="217" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>2013</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>135</v>
+      <c r="E5" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
@@ -1287,389 +1275,389 @@
         <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="186" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3">
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>2008</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="279" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
         <v>2015</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="304" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2008</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="288" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2014</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="128" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2015</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="3">
-        <v>2006</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="186" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="192" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="4">
-        <v>1999</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>2014</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="208" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>2015</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="3">
-        <v>2014</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="128" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="3">
-        <v>2015</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14">
+        <v>2009</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2009</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="B15" s="2">
         <v>2011</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="2">
         <v>2008</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="155" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="B17" s="2">
         <v>2010</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>105</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="B18" s="2">
         <v>2014</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>114</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="112" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="B19" s="2">
         <v>2002</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" ht="186" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
         <v>2008</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
